--- a/my-tests/src/main/resources/dataSheets/testResults.xlsx
+++ b/my-tests/src/main/resources/dataSheets/testResults.xlsx
@@ -21,6 +21,9 @@
     <sheet name="Galaxy S5 Brian" sheetId="9" r:id="rId7"/>
     <sheet name="iPad Air 2 Shared" sheetId="10" r:id="rId8"/>
     <sheet name="null" r:id="rId12" sheetId="11"/>
+    <sheet name="iPhone-6 ShirNate" r:id="rId13" sheetId="12"/>
+    <sheet name="iPhone-6 Brian" r:id="rId14" sheetId="13"/>
+    <sheet name="Galaxy S5 SM-G900A ShirNate" r:id="rId15" sheetId="14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">fullDetails!$A$1:$BM$75</definedName>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8224" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8268" uniqueCount="559">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -1680,6 +1683,33 @@
   </si>
   <si>
     <t>signIn, avnerg@perfectomobile.com, a1001a, 8.87544662E8</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.38</t>
   </si>
 </sst>
 </file>
@@ -3597,16 +3627,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.40625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="80.234375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -3639,6 +3676,27 @@
       </c>
       <c r="J1" t="s">
         <v>516</v>
+      </c>
+      <c r="K1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L1" t="s">
+        <v>551</v>
+      </c>
+      <c r="M1" t="s">
+        <v>552</v>
+      </c>
+      <c r="N1" t="s">
+        <v>553</v>
+      </c>
+      <c r="O1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P1" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3833,6 +3891,107 @@
       <c r="B1" t="s">
         <v>516</v>
       </c>
+      <c r="C1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.3203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.3203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.3203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1" t="s">
+        <v>558</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3847,19 +4006,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.40625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="80.234375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -3901,6 +4065,21 @@
       </c>
       <c r="M1" t="s">
         <v>516</v>
+      </c>
+      <c r="N1" t="s">
+        <v>550</v>
+      </c>
+      <c r="O1" t="s">
+        <v>551</v>
+      </c>
+      <c r="P1" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>553</v>
+      </c>
+      <c r="R1" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -4164,8 +4343,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.3984375" collapsed="true"/>
-    <col min="2" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="80.234375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -4189,6 +4380,27 @@
       </c>
       <c r="G1" t="s">
         <v>217</v>
+      </c>
+      <c r="H1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1" t="s">
+        <v>552</v>
+      </c>
+      <c r="K1" t="s">
+        <v>553</v>
+      </c>
+      <c r="L1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M1" t="s">
+        <v>557</v>
+      </c>
+      <c r="N1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -4337,20 +4549,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.40625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="80.234375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -4395,6 +4615,30 @@
       </c>
       <c r="N1" t="s">
         <v>516</v>
+      </c>
+      <c r="O1" t="s">
+        <v>550</v>
+      </c>
+      <c r="P1" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>552</v>
+      </c>
+      <c r="R1" t="s">
+        <v>553</v>
+      </c>
+      <c r="S1" t="s">
+        <v>554</v>
+      </c>
+      <c r="T1" t="s">
+        <v>556</v>
+      </c>
+      <c r="U1" t="s">
+        <v>557</v>
+      </c>
+      <c r="V1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -28872,13 +29116,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.40625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.00390625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="80.234375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -28902,6 +29150,18 @@
       </c>
       <c r="G1" t="s">
         <v>516</v>
+      </c>
+      <c r="H1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1" t="s">
+        <v>552</v>
+      </c>
+      <c r="K1" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">

--- a/my-tests/src/main/resources/dataSheets/testResults.xlsx
+++ b/my-tests/src/main/resources/dataSheets/testResults.xlsx
@@ -24,6 +24,8 @@
     <sheet name="iPhone-6 ShirNate" r:id="rId13" sheetId="12"/>
     <sheet name="iPhone-6 Brian" r:id="rId14" sheetId="13"/>
     <sheet name="Galaxy S5 SM-G900A ShirNate" r:id="rId15" sheetId="14"/>
+    <sheet name="Galaxy S5 Raj" r:id="rId16" sheetId="15"/>
+    <sheet name="iPad Air Shared" r:id="rId17" sheetId="16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">fullDetails!$A$1:$BM$75</definedName>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8268" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8275" uniqueCount="559">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -3998,6 +4000,56 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.3203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.3203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
@@ -4024,6 +4076,7 @@
     <col min="16" max="16" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -4080,6 +4133,9 @@
       </c>
       <c r="R1" t="s">
         <v>554</v>
+      </c>
+      <c r="S1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -4885,8 +4941,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.3984375" collapsed="true"/>
-    <col min="2" max="6" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="80.234375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -4907,6 +4968,9 @@
       </c>
       <c r="F1" t="s">
         <v>217</v>
+      </c>
+      <c r="G1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -29127,6 +29191,7 @@
     <col min="9" max="9" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -29162,6 +29227,9 @@
       </c>
       <c r="K1" t="s">
         <v>553</v>
+      </c>
+      <c r="L1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">

--- a/my-tests/src/main/resources/dataSheets/testResults.xlsx
+++ b/my-tests/src/main/resources/dataSheets/testResults.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8275" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8284" uniqueCount="560">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -1712,6 +1712,9 @@
   </si>
   <si>
     <t>0.38</t>
+  </si>
+  <si>
+    <t>0.40</t>
   </si>
 </sst>
 </file>
@@ -3646,6 +3649,7 @@
     <col min="15" max="15" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -3699,6 +3703,9 @@
       </c>
       <c r="Q1" t="s">
         <v>558</v>
+      </c>
+      <c r="R1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3950,6 +3957,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3964,6 +3972,9 @@
       </c>
       <c r="D1" t="s">
         <v>558</v>
+      </c>
+      <c r="E1" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -4010,6 +4021,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.3203125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4018,6 +4030,9 @@
       </c>
       <c r="B1" t="s">
         <v>558</v>
+      </c>
+      <c r="C1" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -4035,6 +4050,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.3203125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4043,6 +4059,9 @@
       </c>
       <c r="B1" t="s">
         <v>558</v>
+      </c>
+      <c r="C1" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -4077,6 +4096,7 @@
     <col min="17" max="17" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -4136,6 +4156,9 @@
       </c>
       <c r="S1" t="s">
         <v>558</v>
+      </c>
+      <c r="T1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -4413,6 +4436,7 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -4457,6 +4481,9 @@
       </c>
       <c r="N1" t="s">
         <v>558</v>
+      </c>
+      <c r="O1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -4627,6 +4654,7 @@
     <col min="20" max="20" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -4695,6 +4723,9 @@
       </c>
       <c r="V1" t="s">
         <v>558</v>
+      </c>
+      <c r="W1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -4948,6 +4979,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="13.6875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -4971,6 +5003,9 @@
       </c>
       <c r="G1" t="s">
         <v>558</v>
+      </c>
+      <c r="H1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -29192,6 +29227,7 @@
     <col min="10" max="10" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -29230,6 +29266,9 @@
       </c>
       <c r="L1" t="s">
         <v>558</v>
+      </c>
+      <c r="M1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">

--- a/my-tests/src/main/resources/dataSheets/testResults.xlsx
+++ b/my-tests/src/main/resources/dataSheets/testResults.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8284" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8285" uniqueCount="560">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -3906,6 +3906,9 @@
       <c r="D1" t="s">
         <v>558</v>
       </c>
+      <c r="E1" t="s">
+        <v>559</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
